--- a/biology/Zoologie/Grive_à_calotte_rousse/Grive_à_calotte_rousse.xlsx
+++ b/biology/Zoologie/Grive_à_calotte_rousse/Grive_à_calotte_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_calotte_rousse</t>
+          <t>Grive_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catharus frantzii
 La Grive à calotte rousse (Catharus frantzii) est une espèce de passereau appartenant à la famille des Turdidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_calotte_rousse</t>
+          <t>Grive_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure 15 à 18 cm de longueur et pèse environ 28 g. L'adulte a le dessus brun-olive, la couronne et la nuque rousses, le dessous est gris pâle devenant blanchâtre au niveau du ventre et la mandibule inférieure orange. Le juvénile a la face plus sombre, des ronds pâles sur les plumes  du dos, les flancs et la poitrine sont bruns, et il a des barres ou des taches noires sur le ventre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_calotte_rousse</t>
+          <t>Grive_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fourrage sur le sol de la forêt, seule ou en couple, progressant par bonds et course rapide et marquant des arrêts fréquents. Elle agite les feuilles mortes à la recherche d'insectes et d'araignées et mange aussi des petits fruits.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_calotte_rousse</t>
+          <t>Grive_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est une coupe volumineuse placée de 1 à 4 m de hauteur construite dans un sous-bois dense ou un buisson, souvent à proximité de l'eau. La femelle pond deux œufs gris taché de brun ou vert-bleu. Ils sont couvés par la femelle seule pendant les 15 à 16 jours que dure la couvée alors que les jeunes sont nourris par les deux parents pendant les 14 à 16 jours qui suivent.
 Le chant est un magnifique, riche et varié sifflet, Shee-Vee-li-ee-ree et l'appel est un seet ou whooeet mince et haut.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_calotte_rousse</t>
+          <t>Grive_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle réside dans les régions montagneuses du centre du Mexique à l'ouest du Panama.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_calotte_rousse</t>
+          <t>Grive_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans les sous-bois de chêne des montagnes humides et les forêts de conifères et de repousse, habituellement entre 1 350 m et 3 500 m d'altitude.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_calotte_rousse</t>
+          <t>Grive_à_calotte_rousse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, 8 sous-espèces ont été décrites :
 Catharus frantzii alticola Salvin &amp; Godman 1879 
